--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12915" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SA Hyper Tuning" sheetId="1" r:id="rId1"/>
     <sheet name="Performance" sheetId="4" r:id="rId2"/>
-    <sheet name="Bandwidth-Link" sheetId="2" r:id="rId3"/>
+    <sheet name="Bandwidth-Memory" sheetId="2" r:id="rId3"/>
     <sheet name="Topology" sheetId="3" r:id="rId4"/>
     <sheet name="Prediction Acc" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -629,8 +629,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -656,9 +656,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,22 +679,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,14 +710,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -725,32 +717,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,10 +747,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -807,7 +807,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +861,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,31 +909,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,115 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,45 +989,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1048,6 +1013,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1059,6 +1048,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,9 +1078,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,157 +1091,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1591,576 +1588,576 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.99</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1126.08</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.2052</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.98</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1132.71</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.2019</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.95</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1125.88</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.1837</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.9</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1068.51</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.1829</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>891.38</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.186</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>859.9</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.1716</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.99</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>200</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>962.03</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.6225</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1000</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.98</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>200</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>960.92</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.5717</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1000</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.95</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>200</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>811.37</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.3784</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1000</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>200</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>746.45</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.2713</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.8</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>200</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
         <v>733.15</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>0.2713</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.7</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>200</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>742.91</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.2659</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>500</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.05</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.99</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>100</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>1120.52</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.1938</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>500</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>0.05</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.98</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>100</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>1134.74</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.2079</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>500</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0.05</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.95</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>1108.83</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.1831</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>500</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>0.05</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.9</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>100</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>1030.17</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.1741</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>500</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>0.05</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.8</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>100</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>866.21</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.1653</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>500</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.05</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.7</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>839.23</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.1662</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>500</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.05</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.99</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>200</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>930.21</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.4716</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>500</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>0.05</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.98</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>200</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>935.58</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.4121</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>500</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>0.05</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.95</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>200</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>799.81</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.3632</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>500</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>0.05</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>0.9</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>200</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>748.05</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.3395</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>500</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>0.05</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.8</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>200</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>756.56</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.3165</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>500</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>0.05</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>0.7</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>200</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>736.13</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.2521</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2179,277 +2176,277 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="2" width="22.2190476190476" style="2" customWidth="true"/>
-    <col min="3" max="3" width="21.6571428571429" style="2" customWidth="true"/>
-    <col min="4" max="4" width="27.1428571428571" style="2" customWidth="true"/>
-    <col min="5" max="5" width="9.14285714285714" style="2"/>
-    <col min="6" max="6" width="14.2" style="2" customWidth="true"/>
-    <col min="7" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="22.2190476190476" style="1" customWidth="true"/>
+    <col min="3" max="3" width="21.6571428571429" style="1" customWidth="true"/>
+    <col min="4" max="4" width="27.1428571428571" style="1" customWidth="true"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="14.2" style="1" customWidth="true"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>80</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>120</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>160</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>80</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>100</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>120</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>140</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>160</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2464,370 +2461,370 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="2"/>
-    <col min="3" max="3" width="23.9714285714286" style="2" customWidth="true"/>
-    <col min="4" max="5" width="24.2761904761905" style="2" customWidth="true"/>
-    <col min="6" max="6" width="23.0571428571429" style="2" customWidth="true"/>
-    <col min="7" max="9" width="9.14285714285714" style="2"/>
-    <col min="10" max="10" width="23.6666666666667" style="2" customWidth="true"/>
-    <col min="11" max="12" width="23.2571428571429" style="2" customWidth="true"/>
-    <col min="13" max="13" width="23.6666666666667" style="2" customWidth="true"/>
-    <col min="14" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="23.9714285714286" style="1" customWidth="true"/>
+    <col min="4" max="5" width="24.2761904761905" style="1" customWidth="true"/>
+    <col min="6" max="6" width="23.0571428571429" style="1" customWidth="true"/>
+    <col min="7" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="23.6666666666667" style="1" customWidth="true"/>
+    <col min="11" max="12" width="23.2571428571429" style="1" customWidth="true"/>
+    <col min="13" max="13" width="23.6666666666667" style="1" customWidth="true"/>
+    <col min="14" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2912,8 +2909,7 @@
       <c r="E1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2927,10 +2923,10 @@
       <c r="C2" s="1">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2983,10 +2979,10 @@
       <c r="C6" s="1">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3033,10 +3029,10 @@
       <c r="C10" s="1">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3095,10 +3091,10 @@
       <c r="C16" s="1">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3151,10 +3147,10 @@
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3201,10 +3197,10 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3247,7 +3243,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3263,42 +3259,37 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.9</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3307,10 +3298,10 @@
       <c r="C4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3319,10 +3310,10 @@
       <c r="C5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.7</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3331,10 +3322,10 @@
       <c r="C6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3343,10 +3334,10 @@
       <c r="C7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3355,10 +3346,10 @@
       <c r="C8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.4</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3367,10 +3358,10 @@
       <c r="C9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>0.3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3379,10 +3370,10 @@
       <c r="C10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>0.2</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3391,7 +3382,7 @@
       <c r="C11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
@@ -3402,26 +3393,26 @@
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>0.9</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3432,7 +3423,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>0.8</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3443,7 +3434,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>0.7</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3454,7 +3445,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>0.6</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3465,7 +3456,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>0.5</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3476,7 +3467,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>0.4</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3487,7 +3478,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>0.3</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3498,7 +3489,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>0.2</v>
       </c>
       <c r="B23" s="1" t="s">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12915" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SA Hyper Tuning" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="209">
   <si>
     <t>100 MC</t>
   </si>
@@ -542,7 +542,7 @@
     <t>1.7088    1.6555    1.3475</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.6728    0.6710    0.5262</t>
+    <t>0.6728    0.6710    0.5262</t>
   </si>
   <si>
     <t>1.4393    1.4033    1.2015</t>
@@ -575,6 +575,18 @@
     <t>0.3223    0.3200    0.2884</t>
   </si>
   <si>
+    <t>0.7224    0.7075    0.7252</t>
+  </si>
+  <si>
+    <t>0.2596    0.2502    0.2459</t>
+  </si>
+  <si>
+    <t>0.6699    0.6575    0.6836</t>
+  </si>
+  <si>
+    <t>0.1919    0.1842    0.1876</t>
+  </si>
+  <si>
     <t>4.5504    4.3918    1.5698</t>
   </si>
   <si>
@@ -584,7 +596,7 @@
     <t>3.3520    3.2564    1.5221</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.8300    0.8302    0.4850</t>
+    <t>0.8300    0.8302    0.4850</t>
   </si>
   <si>
     <t>2.6584    2.5942    1.4770</t>
@@ -617,10 +629,22 @@
     <t>0.4302    0.4291    0.3468</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.2871    1.2854    1.2456</t>
+    <t>1.2871    1.2854    1.2456</t>
   </si>
   <si>
     <t>0.3487    0.3528    0.3081</t>
+  </si>
+  <si>
+    <t>1.0206    1.0000    1.0371</t>
+  </si>
+  <si>
+    <t>0.2696    0.2722    0.2559</t>
+  </si>
+  <si>
+    <t>0.9303    0.9194    0.9643</t>
+  </si>
+  <si>
+    <t>0.1879    0.1933    0.1887</t>
   </si>
 </sst>
 </file>
@@ -628,67 +652,121 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -696,44 +774,23 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -741,47 +798,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -807,25 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,37 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +891,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,49 +963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,25 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,11 +1013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,23 +1046,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,30 +1078,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1086,153 +1086,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1270,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="17" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
@@ -1255,63 +1279,63 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="33" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="19" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="33" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="19" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1586,9 +1610,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="16384" width="9.14074074074074" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2170,19 +2194,19 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="22.2190476190476" style="1" customWidth="true"/>
-    <col min="3" max="3" width="21.6571428571429" style="1" customWidth="true"/>
-    <col min="4" max="4" width="27.1428571428571" style="1" customWidth="true"/>
-    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="9.14074074074074" style="1"/>
+    <col min="2" max="2" width="22.2222222222222" style="1" customWidth="true"/>
+    <col min="3" max="3" width="21.6592592592593" style="1" customWidth="true"/>
+    <col min="4" max="4" width="27.1407407407407" style="1" customWidth="true"/>
+    <col min="5" max="5" width="9.14074074074074" style="1"/>
     <col min="6" max="6" width="14.2" style="1" customWidth="true"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="16384" width="9.14074074074074" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2461,21 +2485,21 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="1"/>
-    <col min="3" max="3" width="23.9714285714286" style="1" customWidth="true"/>
-    <col min="4" max="5" width="24.2761904761905" style="1" customWidth="true"/>
-    <col min="6" max="6" width="23.0571428571429" style="1" customWidth="true"/>
-    <col min="7" max="9" width="9.14285714285714" style="1"/>
+    <col min="1" max="2" width="9.14074074074074" style="1"/>
+    <col min="3" max="3" width="23.9703703703704" style="1" customWidth="true"/>
+    <col min="4" max="5" width="24.2740740740741" style="1" customWidth="true"/>
+    <col min="6" max="6" width="23.0592592592593" style="1" customWidth="true"/>
+    <col min="7" max="9" width="9.14074074074074" style="1"/>
     <col min="10" max="10" width="23.6666666666667" style="1" customWidth="true"/>
-    <col min="11" max="12" width="23.2571428571429" style="1" customWidth="true"/>
+    <col min="11" max="12" width="23.2592592592593" style="1" customWidth="true"/>
     <col min="13" max="13" width="23.6666666666667" style="1" customWidth="true"/>
-    <col min="14" max="16384" width="9.14285714285714" style="1"/>
+    <col min="14" max="16384" width="9.14074074074074" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2882,15 +2906,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="26.9809523809524" style="1" customWidth="true"/>
-    <col min="5" max="5" width="30.2285714285714" style="1" customWidth="true"/>
-    <col min="6" max="6" width="13.4857142857143" style="1" customWidth="true"/>
-    <col min="7" max="7" width="11.4190476190476" style="1" customWidth="true"/>
-    <col min="8" max="8" width="10.552380952381" style="1" customWidth="true"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="3" width="9.14074074074074" style="1"/>
+    <col min="4" max="4" width="26.9777777777778" style="1" customWidth="true"/>
+    <col min="5" max="5" width="30.2296296296296" style="1" customWidth="true"/>
+    <col min="6" max="6" width="13.4888888888889" style="1" customWidth="true"/>
+    <col min="7" max="7" width="11.4222222222222" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5555555555556" style="1" customWidth="true"/>
+    <col min="9" max="16384" width="9.14074074074074" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3241,18 +3265,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.24761904761905" style="1" customWidth="true"/>
-    <col min="2" max="2" width="24.4380952380952" style="1" customWidth="true"/>
-    <col min="3" max="3" width="22.3714285714286" style="1" customWidth="true"/>
-    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="8.24444444444444" style="1" customWidth="true"/>
+    <col min="2" max="2" width="24.437037037037" style="1" customWidth="true"/>
+    <col min="3" max="3" width="22.3703703703704" style="1" customWidth="true"/>
+    <col min="4" max="16384" width="9.14074074074074" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3384,58 +3408,60 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>189</v>
@@ -3446,7 +3472,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>191</v>
@@ -3457,7 +3483,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>193</v>
@@ -3468,7 +3494,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>195</v>
@@ -3479,7 +3505,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>197</v>
@@ -3490,13 +3516,57 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="4"/>
+    <workbookView windowWidth="27720" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SA Hyper Tuning" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="218">
   <si>
     <t>100 MC</t>
   </si>
@@ -44,6 +44,9 @@
     <t>(P1)</t>
   </si>
   <si>
+    <t>ILP    GSAC    Random    Greedy</t>
+  </si>
+  <si>
     <t>0.5GB,0.5Gbps</t>
   </si>
   <si>
@@ -59,154 +62,151 @@
     <t>Time</t>
   </si>
   <si>
-    <t>3.4400    3.1374    2.5823</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.9770</t>
-  </si>
-  <si>
-    <t>6.7982    0.0491    0.0010</t>
-  </si>
-  <si>
-    <t>3.8659    3.6903    2.5271</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.9000</t>
-  </si>
-  <si>
-    <t>21.7545    0.0761    0.0010</t>
-  </si>
-  <si>
-    <t>4.2218    4.0253    2.2008</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.7997</t>
-  </si>
-  <si>
-    <t>31.8562    0.1105    0.0014</t>
-  </si>
-  <si>
-    <t>4.2341    3.8735    2.1445</t>
-  </si>
-  <si>
-    <t>0.9969    0.9906    0.7733</t>
-  </si>
-  <si>
-    <t>38.5046    0.1307    0.0015</t>
-  </si>
-  <si>
-    <t>4.2364    3.9012    2.0890</t>
-  </si>
-  <si>
-    <t>0.9942    0.9929    0.7486</t>
-  </si>
-  <si>
-    <t>74.3483    0.1589    0.0015</t>
-  </si>
-  <si>
-    <t>4.2330    3.8413    2.0827</t>
-  </si>
-  <si>
-    <t>0.9926    0.9838    0.7306</t>
-  </si>
-  <si>
-    <t>146.4582    0.1778    0.0017</t>
-  </si>
-  <si>
-    <t>4.0253    3.5506    1.8855</t>
-  </si>
-  <si>
-    <t>0.9786    0.9721    0.6818</t>
-  </si>
-  <si>
-    <t>487.4830    0.2156    0.0020</t>
-  </si>
-  <si>
-    <t>3.9432    3.5023    1.8919</t>
-  </si>
-  <si>
-    <t>0.9705    0.9657    0.6649</t>
-  </si>
-  <si>
-    <t>757.9589    0.3022    0.0086</t>
+    <t>3.4400    3.1374    2.5823    2.9126</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9770    1.0000</t>
+  </si>
+  <si>
+    <t>6.7982    0.0491    0.0010    0.0013</t>
+  </si>
+  <si>
+    <t>3.8659    3.6903    2.5271    2.9590</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9000    1.0000</t>
+  </si>
+  <si>
+    <t>21.7545    0.0761    0.0010    0.0015</t>
+  </si>
+  <si>
+    <t>4.2218    4.0253    2.2008    2.7337</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.7997    1.0000</t>
+  </si>
+  <si>
+    <t>31.8562    0.1105    0.0014    0.0021</t>
+  </si>
+  <si>
+    <t>4.2341    3.8735    2.1445    2.8735</t>
+  </si>
+  <si>
+    <t>0.9969    0.9906    0.7733    0.9960</t>
+  </si>
+  <si>
+    <t>38.5046    0.1307    0.0015    0.0025</t>
+  </si>
+  <si>
+    <t>4.2364    3.9012    2.0890    2.8349</t>
+  </si>
+  <si>
+    <t>0.9942    0.9929    0.7486    0.9934</t>
+  </si>
+  <si>
+    <t>74.3483    0.1589    0.0015    0.0026</t>
+  </si>
+  <si>
+    <t>4.2330    3.8413    2.0827    3.0096</t>
+  </si>
+  <si>
+    <t>0.9926    0.9838    0.7306    0.9926</t>
+  </si>
+  <si>
+    <t>146.4582    0.1778    0.0017    0.0032</t>
+  </si>
+  <si>
+    <t>4.0253    3.5506    1.8855    2.7077</t>
+  </si>
+  <si>
+    <t>0.9786    0.9721    0.6818    0.9701</t>
+  </si>
+  <si>
+    <t>487.4830    0.2156    0.0020    0.0036</t>
+  </si>
+  <si>
+    <t>3.9432    3.5023    1.8919    2.8017</t>
+  </si>
+  <si>
+    <t>0.9705    0.9657    0.6649    0.9682</t>
+  </si>
+  <si>
+    <t>757.9589    0.3022    0.0086    0.0039</t>
   </si>
   <si>
     <t>(P2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.9710    3.7084    2.8902</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.9792</t>
-  </si>
-  <si>
-    <t>7.4438    0.0667    0.0012</t>
-  </si>
-  <si>
-    <t>4.6696    4.4523    2.3820</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.8292</t>
-  </si>
-  <si>
-    <t>18.4743    0.1049    0.0016</t>
-  </si>
-  <si>
-    <t>5.6534    5.1111    2.0104</t>
-  </si>
-  <si>
-    <t>1.0000    0.9903    0.6833</t>
-  </si>
-  <si>
-    <t>18.0684    0.1778    0.0021</t>
-  </si>
-  <si>
-    <t>6.1304    5.2799    1.7678</t>
-  </si>
-  <si>
-    <t>0.9990    0.9792    0.6281</t>
-  </si>
-  <si>
-    <t>20.5128    0.1898    0.0023</t>
-  </si>
-  <si>
-    <t>6.5038    5.1374    1.7105</t>
-  </si>
-  <si>
-    <t>0.9967    0.9642    0.5725</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31.7881    0.2209    0.0023</t>
-  </si>
-  <si>
-    <t>6.5510    4.6880    1.5188</t>
-  </si>
-  <si>
-    <t>0.9806    0.9174    0.4840</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 153.3777    0.2277    0.0029</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.0654    4.5582    1.5133</t>
-  </si>
-  <si>
-    <t>0.9801    0.9107    0.4720</t>
-  </si>
-  <si>
-    <t>374.2171    0.3599    0.0086</t>
-  </si>
-  <si>
-    <t>6.9602    4.6854    1.4943</t>
-  </si>
-  <si>
-    <t>0.9604    0.8927    0.4583</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 709.4593    0.3842    0.0095</t>
-  </si>
-  <si>
-    <t>ILP    GSAC    Random</t>
+    <t>3.9710    3.7084    2.8902    3.4238</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9792    1.0000</t>
+  </si>
+  <si>
+    <t>7.4438    0.0667    0.0012    0.0016</t>
+  </si>
+  <si>
+    <t>4.6696    4.4523    2.3820    3.7365</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.8292    1.0000</t>
+  </si>
+  <si>
+    <t>18.4743    0.1049    0.0016    0.0023</t>
+  </si>
+  <si>
+    <t>5.6534    5.1111    2.0104    4.0838</t>
+  </si>
+  <si>
+    <t>1.0000    0.9903    0.6833    0.9987</t>
+  </si>
+  <si>
+    <t>18.0684    0.1778    0.0021    0.0034</t>
+  </si>
+  <si>
+    <t>6.1304    5.2799    1.7678    4.4488</t>
+  </si>
+  <si>
+    <t>0.9990    0.9792    0.6281    0.9953</t>
+  </si>
+  <si>
+    <t>20.5128    0.1898    0.0023    0.0045</t>
+  </si>
+  <si>
+    <t>6.5038    5.1374    1.7105    4.6145</t>
+  </si>
+  <si>
+    <t>0.9967    0.9642    0.5725    0.9830</t>
+  </si>
+  <si>
+    <t>31.7881    0.2209    0.0023    0.0047</t>
+  </si>
+  <si>
+    <t>6.5510    4.6880    1.5188    4.6631</t>
+  </si>
+  <si>
+    <t>0.9806    0.9174    0.4840    0.9624</t>
+  </si>
+  <si>
+    <t>153.3777    0.2277    0.0029    0.0059</t>
+  </si>
+  <si>
+    <t>7.0654    4.5582    1.5133    4.4397</t>
+  </si>
+  <si>
+    <t>0.9801    0.9107    0.4720    0.9406</t>
+  </si>
+  <si>
+    <t>374.2171    0.3599    0.0086    0.0078</t>
+  </si>
+  <si>
+    <t>6.9602    4.6854    1.4943    4.2896</t>
+  </si>
+  <si>
+    <t>0.9604    0.8927    0.4583    0.9061</t>
+  </si>
+  <si>
+    <t>709.4593    0.3842    0.0095    0.0092</t>
   </si>
   <si>
     <t>100 Users</t>
@@ -230,288 +230,316 @@
     <t>0.25GB</t>
   </si>
   <si>
+    <t>2.3365    1.9550    1.4385    1.8516</t>
+  </si>
+  <si>
+    <t>3.9227    3.4082    2.1701    2.4263</t>
+  </si>
+  <si>
+    <t>4.4495    4.1445    2.6825    2.6060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7213    4.5881    3.6827    2.7222</t>
+  </si>
+  <si>
+    <t>0.5GB</t>
+  </si>
+  <si>
+    <t>3.3526    2.9545    1.4366    2.4903</t>
+  </si>
+  <si>
+    <t>4.6396    4.4532    2.8655    2.8760</t>
+  </si>
+  <si>
+    <t>4.7337    4.6157    3.8581    3.0928</t>
+  </si>
+  <si>
+    <t>0.75GB</t>
+  </si>
+  <si>
+    <t>3.6596    3.3191    1.4669    2.9243</t>
+  </si>
+  <si>
+    <t>4.2482    3.9617    2.0100    2.8398</t>
+  </si>
+  <si>
+    <t>4.6140    4.4198    2.8722    2.9662</t>
+  </si>
+  <si>
+    <t>4.7269    4.5977    3.4637    2.7796</t>
+  </si>
+  <si>
+    <t>1GB</t>
+  </si>
+  <si>
+    <t>3.6572    3.3580    1.4506    2.9725</t>
+  </si>
+  <si>
+    <t>4.2513    3.9450    2.1315    2.9956</t>
+  </si>
+  <si>
+    <t>4.6842    4.5402    3.0278    3.0740</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7222    4.6207    3.2578    2.7004</t>
+  </si>
+  <si>
+    <t>Cache-Hit Ratio (P1)</t>
+  </si>
+  <si>
+    <t>0.7516    0.7173    0.5078    0.7659</t>
+  </si>
+  <si>
+    <t>0.9581    0.9361    0.7341    0.9122</t>
+  </si>
+  <si>
+    <t>0.9872    0.9829    0.8504    0.9577</t>
+  </si>
+  <si>
+    <t>1.0000    0.9986    0.9508    0.9600</t>
+  </si>
+  <si>
+    <t>0.9454    0.9414    0.5027    0.9087</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.8759    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9742    1.0000</t>
+  </si>
+  <si>
+    <t>0.9957    0.9943    0.5337    0.9955</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.7174    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.8688    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9341    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.5154    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.7494    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.8815    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9125    1.0000</t>
+  </si>
+  <si>
+    <t>Energy Gain (P2)</t>
+  </si>
+  <si>
+    <t>2.8766    2.0303    1.3570    1.9478</t>
+  </si>
+  <si>
+    <t>5.4186    3.4475    1.6576    2.8563</t>
+  </si>
+  <si>
+    <t>5.6124    4.7573    2.1963    3.7564</t>
+  </si>
+  <si>
+    <t>6.9259    6.4378    2.5980    4.1569</t>
+  </si>
+  <si>
+    <t>5.5326    3.7419    1.3370    3.5386</t>
+  </si>
+  <si>
+    <t>6.9785    6.4587    2.0580    4.8636</t>
+  </si>
+  <si>
+    <t>6.9905    6.5546    2.5297    4.9279</t>
+  </si>
+  <si>
+    <t>6.2626    5.2916    1.3117    4.9226</t>
+  </si>
+  <si>
+    <t>6.9003    6.2574    1.7628    5.1421</t>
+  </si>
+  <si>
+    <t>6.9855    6.6323    1.9886    5.0819</t>
+  </si>
+  <si>
+    <t>6.9549    6.6557    2.4896    5.1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1004    5.4621    1.2844    5.2472
+</t>
+  </si>
+  <si>
+    <t>6.6124    5.9671    1.7730    5.3193</t>
+  </si>
+  <si>
+    <t>7.0527    6.5649    2.0052    5.2230</t>
+  </si>
+  <si>
+    <t>6.8484    6.6794    2.6061    5.2302</t>
+  </si>
+  <si>
+    <t>Cache-Hit Ratio (P2)</t>
+  </si>
+  <si>
+    <t>0.7610    0.6640    0.4085    0.6919</t>
+  </si>
+  <si>
+    <t>0.9433    0.8358    0.5617    0.8485</t>
+  </si>
+  <si>
+    <t>0.9550    0.9325    0.7158    0.9403</t>
+  </si>
+  <si>
+    <t>1.0000    0.9883    0.7800    0.9687</t>
+  </si>
+  <si>
+    <t>0.9683    0.8833    0.4008    0.9196</t>
+  </si>
+  <si>
+    <t>1.0000    0.9942    0.6600    0.9979</t>
+  </si>
+  <si>
+    <t>1.0000    0.9908    0.7733    0.9994</t>
+  </si>
+  <si>
+    <t>0.9983    0.9867    0.3708    0.9902</t>
+  </si>
+  <si>
+    <t>1.0000    0.9975    0.5667    0.9995</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.6467    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.7650    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.3700    0.9998</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.5800    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.6658    1.0000</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.7708    1.0000</t>
+  </si>
+  <si>
+    <t>Nodes #</t>
+  </si>
+  <si>
+    <t>Links #</t>
+  </si>
+  <si>
+    <t>Energy Gain (0.25Gbps,0.25GB)</t>
+  </si>
+  <si>
+    <t>Cache-Hit Ratio (0.25Gbps,0.25GB)</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
     <t>2.3365    1.9550    1.4385</t>
   </si>
   <si>
-    <t>3.9227    3.4082    2.1701</t>
-  </si>
-  <si>
-    <t>4.4495    4.1445    2.6825</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.7213    4.5881    3.6827</t>
-  </si>
-  <si>
-    <t>0.5GB</t>
-  </si>
-  <si>
-    <t>3.3526    2.9545    1.4366</t>
-  </si>
-  <si>
-    <t>4.6396    4.4532    2.8655</t>
-  </si>
-  <si>
-    <t>4.7337    4.6157    3.8581</t>
-  </si>
-  <si>
-    <t>0.75GB</t>
-  </si>
-  <si>
-    <t>3.6596    3.3191    1.4669</t>
-  </si>
-  <si>
-    <t>4.2482    3.9617    2.0100</t>
+    <t>0.7516    0.7173    0.5078</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>2.1073    1.7346    1.2782</t>
+  </si>
+  <si>
+    <t>0.7194    0.6503    0.4204</t>
+  </si>
+  <si>
+    <t>Full-Mesh</t>
+  </si>
+  <si>
+    <t>5.8616    5.8095    5.6072</t>
+  </si>
+  <si>
+    <t>1     1     1</t>
+  </si>
+  <si>
+    <t>Energy Gain (0.5Gbps,0.5GB)</t>
+  </si>
+  <si>
+    <t>Cache-Hit Ratio (0.5Gbps,0.5GB)</t>
+  </si>
+  <si>
+    <t>3.7685    3.3929    1.6542    2.8203</t>
+  </si>
+  <si>
+    <t>0.9940    0.9740    0.6247    0.9924</t>
+  </si>
+  <si>
+    <t>6.2245    6.0656    5.7627    3.3527</t>
+  </si>
+  <si>
+    <t>1     1     1    1</t>
+  </si>
+  <si>
+    <t>Energy Gain (0.75Gbps,0.75GB)</t>
+  </si>
+  <si>
+    <t>Cache-Hit Ratio (0.75Gbps,0.75GB)</t>
   </si>
   <si>
     <t>4.6140    4.4198    2.8722</t>
   </si>
   <si>
-    <t>4.7269    4.5977    3.4637</t>
-  </si>
-  <si>
-    <t>1GB</t>
-  </si>
-  <si>
-    <t>3.6572    3.3580    1.4506</t>
-  </si>
-  <si>
-    <t>4.2513    3.9450    2.1315</t>
-  </si>
-  <si>
-    <t>4.6842    4.5402    3.0278</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.7222    4.6207    3.2578</t>
-  </si>
-  <si>
-    <t>Cache-Hit Ratio (P1)</t>
-  </si>
-  <si>
-    <t>0.7516    0.7173    0.5078</t>
-  </si>
-  <si>
-    <t>0.9581    0.9361    0.7341</t>
-  </si>
-  <si>
-    <t>0.9872    0.9829    0.8504</t>
-  </si>
-  <si>
-    <t>1.0000    0.9986    0.9508</t>
-  </si>
-  <si>
-    <t>0.9454    0.9414    0.5027</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.8759</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.9742</t>
-  </si>
-  <si>
-    <t>0.9957    0.9943    0.5337</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.7174</t>
-  </si>
-  <si>
     <t>1.0000    1.0000    0.8688</t>
   </si>
   <si>
-    <t>1.0000    1.0000    0.9341</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.5154</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.7494</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.8815</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.9125</t>
-  </si>
-  <si>
-    <t>Energy Gain (P2)</t>
+    <t>3.9893    3.8797    1.9825</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.7274</t>
+  </si>
+  <si>
+    <t>6.2266    6.0673    5.7589</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.8766    2.0303    1.3570</t>
   </si>
   <si>
-    <t>5.4186    3.4475    1.6576</t>
-  </si>
-  <si>
-    <t>5.6124    4.7573    2.1963</t>
-  </si>
-  <si>
-    <t>6.9259    6.4378    2.5980</t>
-  </si>
-  <si>
-    <t>5.5326    3.7419    1.3370</t>
-  </si>
-  <si>
-    <t>6.9785    6.4587    2.0580</t>
-  </si>
-  <si>
-    <t>6.9905    6.5546    2.5297</t>
-  </si>
-  <si>
-    <t>6.2626    5.2916    1.3117</t>
-  </si>
-  <si>
-    <t>6.9003    6.2574    1.7628</t>
+    <t xml:space="preserve"> 0.7610    0.6640    0.4085</t>
+  </si>
+  <si>
+    <t>2.5959    1.9877    1.2712</t>
+  </si>
+  <si>
+    <t>0.7108    0.6292    0.3333</t>
+  </si>
+  <si>
+    <t>9.1877    8.7187    6.1297</t>
+  </si>
+  <si>
+    <t>1.0000    1.0000    0.9733</t>
+  </si>
+  <si>
+    <t>6.1629    4.5856    1.4451    4.3654</t>
+  </si>
+  <si>
+    <t>0.9925    0.9417    0.4600    0.9738</t>
+  </si>
+  <si>
+    <t>9.7893    9.1300    7.5558    5.6611</t>
   </si>
   <si>
     <t>6.9855    6.6323    1.9886</t>
   </si>
   <si>
-    <t>6.9549    6.6557    2.4896</t>
-  </si>
-  <si>
-    <t>6.1004    5.4621    1.2844</t>
-  </si>
-  <si>
-    <t>6.6124    5.9671    1.7730</t>
-  </si>
-  <si>
-    <t>7.0527    6.5649    2.0052</t>
-  </si>
-  <si>
-    <t>6.8484    6.6794    2.6061</t>
-  </si>
-  <si>
-    <t>Cache-Hit Ratio (P2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.7610    0.6640    0.4085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.9433    0.8358    0.5617</t>
-  </si>
-  <si>
-    <t>0.9550    0.9325    0.7158</t>
-  </si>
-  <si>
-    <t>1.0000    0.9883    0.7800</t>
-  </si>
-  <si>
-    <t>0.9683    0.8833    0.4008</t>
-  </si>
-  <si>
-    <t>1.0000    0.9942    0.6600</t>
-  </si>
-  <si>
-    <t>1.0000    0.9908    0.7733</t>
-  </si>
-  <si>
-    <t>0.9983    0.9867    0.3708</t>
-  </si>
-  <si>
-    <t>1.0000    0.9975    0.5667</t>
-  </si>
-  <si>
     <t>1.0000    1.0000    0.6467</t>
   </si>
   <si>
-    <t>1.0000    1.0000    0.7650</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.3700</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.5800</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.6658</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.7708</t>
-  </si>
-  <si>
-    <t>Nodes #</t>
-  </si>
-  <si>
-    <t>Links #</t>
-  </si>
-  <si>
-    <t>Energy Gain (0.25Gbps,0.25GB)</t>
-  </si>
-  <si>
-    <t>Cache-Hit Ratio (0.25Gbps,0.25GB)</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>2.1073    1.7346    1.2782</t>
-  </si>
-  <si>
-    <t>0.7194    0.6503    0.4204</t>
-  </si>
-  <si>
-    <t>Full-Mesh</t>
-  </si>
-  <si>
-    <t>5.8616    5.8095    5.6072</t>
-  </si>
-  <si>
-    <t>1     1     1</t>
-  </si>
-  <si>
-    <t>Energy Gain (0.5Gbps,0.5GB)</t>
-  </si>
-  <si>
-    <t>Cache-Hit Ratio (0.5Gbps,0.5GB)</t>
-  </si>
-  <si>
-    <t>3.7685    3.3929    1.6542</t>
-  </si>
-  <si>
-    <t>0.9944    0.9740    0.6247</t>
-  </si>
-  <si>
-    <t>6.2245    6.0656    5.7627</t>
-  </si>
-  <si>
-    <t>Energy Gain (0.75Gbps,0.75GB)</t>
-  </si>
-  <si>
-    <t>Cache-Hit Ratio (0.75Gbps,0.75GB)</t>
-  </si>
-  <si>
-    <t>3.9893    3.8797    1.9825</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.7274</t>
-  </si>
-  <si>
-    <t>6.2266    6.0673    5.7589</t>
-  </si>
-  <si>
-    <t>2.5959    1.9877    1.2712</t>
-  </si>
-  <si>
-    <t>0.7108    0.6292    0.3333</t>
-  </si>
-  <si>
-    <t>9.1877    8.7187    6.1297</t>
-  </si>
-  <si>
-    <t>1.0000    1.0000    0.9733</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1629    4.5856    1.4451</t>
-  </si>
-  <si>
-    <t>0.9925    0.9417    0.4600</t>
-  </si>
-  <si>
-    <t>9.7893    9.1300    7.5558</t>
-  </si>
-  <si>
     <t>6.3526    5.8355    1.6032</t>
   </si>
   <si>
@@ -527,124 +555,124 @@
     <t>Acc</t>
   </si>
   <si>
-    <t>2.8462    2.7001    1.8159</t>
-  </si>
-  <si>
-    <t>0.8690    0.8703    0.6603</t>
-  </si>
-  <si>
-    <t>2.1037    2.0559    1.5405</t>
-  </si>
-  <si>
-    <t>0.7607    0.7639    0.5857</t>
-  </si>
-  <si>
-    <t>1.7088    1.6555    1.3475</t>
-  </si>
-  <si>
-    <t>0.6728    0.6710    0.5262</t>
-  </si>
-  <si>
-    <t>1.4393    1.4033    1.2015</t>
-  </si>
-  <si>
-    <t>0.5938    0.5920    0.4706</t>
-  </si>
-  <si>
-    <t>1.2412    1.2206    1.1018</t>
-  </si>
-  <si>
-    <t>0.5200    0.5189    0.4247</t>
-  </si>
-  <si>
-    <t>1.1009    1.0840    1.0118</t>
-  </si>
-  <si>
-    <t>0.4513    0.4506    0.3783</t>
-  </si>
-  <si>
-    <t>0.9921    0.9785    0.9443</t>
-  </si>
-  <si>
-    <t>0.3886    0.3864    0.3316</t>
-  </si>
-  <si>
-    <t>0.9026    0.8927    0.8916</t>
-  </si>
-  <si>
-    <t>0.3223    0.3200    0.2884</t>
-  </si>
-  <si>
-    <t>0.7224    0.7075    0.7252</t>
-  </si>
-  <si>
-    <t>0.2596    0.2502    0.2459</t>
-  </si>
-  <si>
-    <t>0.6699    0.6575    0.6836</t>
-  </si>
-  <si>
-    <t>0.1919    0.1842    0.1876</t>
-  </si>
-  <si>
-    <t>4.5504    4.3918    1.5698</t>
-  </si>
-  <si>
-    <t>0.9113    0.9130    0.5102</t>
-  </si>
-  <si>
-    <t>3.3520    3.2564    1.5221</t>
-  </si>
-  <si>
-    <t>0.8300    0.8302    0.4850</t>
-  </si>
-  <si>
-    <t>2.6584    2.5942    1.4770</t>
-  </si>
-  <si>
-    <t>0.7515    0.7485    0.4609</t>
-  </si>
-  <si>
-    <t>2.1736    2.1675    1.4359</t>
-  </si>
-  <si>
-    <t>0.6664    0.6726    0.4396</t>
-  </si>
-  <si>
-    <t>1.8590    1.8477    1.3931</t>
-  </si>
-  <si>
-    <t>0.5898    0.5905    0.4129</t>
-  </si>
-  <si>
-    <t>1.6172    1.6258    1.3489</t>
-  </si>
-  <si>
-    <t>0.5084    0.5135    0.3839</t>
-  </si>
-  <si>
-    <t>1.4316    1.4244    1.2979</t>
-  </si>
-  <si>
-    <t>0.4302    0.4291    0.3468</t>
-  </si>
-  <si>
-    <t>1.2871    1.2854    1.2456</t>
-  </si>
-  <si>
-    <t>0.3487    0.3528    0.3081</t>
-  </si>
-  <si>
-    <t>1.0206    1.0000    1.0371</t>
-  </si>
-  <si>
-    <t>0.2696    0.2722    0.2559</t>
-  </si>
-  <si>
-    <t>0.9303    0.9194    0.9643</t>
-  </si>
-  <si>
-    <t>0.1879    0.1933    0.1887</t>
+    <t>2.8462    2.7001    1.8159    2.1112</t>
+  </si>
+  <si>
+    <t>0.8690    0.8703    0.6603    0.8776</t>
+  </si>
+  <si>
+    <t>2.1037    2.0559    1.5405    1.6239</t>
+  </si>
+  <si>
+    <t>0.7607    0.7639    0.5857    0.7663</t>
+  </si>
+  <si>
+    <t>1.7088    1.6555    1.2491    1.3676</t>
+  </si>
+  <si>
+    <t>0.6728    0.6710    0.5279    0.6778</t>
+  </si>
+  <si>
+    <t>1.4393    1.4033    1.1160    1.1707</t>
+  </si>
+  <si>
+    <t>0.5938    0.5920    0.4848    0.6069</t>
+  </si>
+  <si>
+    <t>1.2412    1.2206    1.0095    0.9835</t>
+  </si>
+  <si>
+    <t>0.5200    0.5189    0.4433    0.5268</t>
+  </si>
+  <si>
+    <t>1.1009    1.0840    0.9417    0.8858</t>
+  </si>
+  <si>
+    <t>0.4513    0.4506    0.3936    0.4599</t>
+  </si>
+  <si>
+    <t>0.9921    0.9785    0.8751    0.8150</t>
+  </si>
+  <si>
+    <t>0.3886    0.3864    0.3520    0.4008</t>
+  </si>
+  <si>
+    <t>0.9026    0.8927    0.8020    0.7250</t>
+  </si>
+  <si>
+    <t>0.3223    0.3200     0.3055    0.3261</t>
+  </si>
+  <si>
+    <t>0.7224    0.7075    0.7649    0.6805</t>
+  </si>
+  <si>
+    <t>0.2596    0.2502    0.2499    0.2572</t>
+  </si>
+  <si>
+    <t>0.6699    0.6575    0.7278    0.6449</t>
+  </si>
+  <si>
+    <t>0.1919    0.1842    0.1860    0.1922</t>
+  </si>
+  <si>
+    <t>4.5504    4.3918    1.6250    3.4397</t>
+  </si>
+  <si>
+    <t>0.9113    0.9130    0.5251    0.9084</t>
+  </si>
+  <si>
+    <t>3.3520    3.2564    1.5553    2.6700</t>
+  </si>
+  <si>
+    <t>0.8300    0.8302    0.4990    0.8185</t>
+  </si>
+  <si>
+    <t>2.6584    2.5942    1.4836    2.2605</t>
+  </si>
+  <si>
+    <t>0.7515    0.7485    0.4816    0.7550</t>
+  </si>
+  <si>
+    <t>2.1736    2.1675    1.4577    1.8736</t>
+  </si>
+  <si>
+    <t>0.6664    0.6726    0.4488    0.6627</t>
+  </si>
+  <si>
+    <t>1.8590    1.8477    1.4195    1.6815</t>
+  </si>
+  <si>
+    <t>0.5898    0.5905    0.4250    0.5882</t>
+  </si>
+  <si>
+    <t>1.6172    1.6258    1.3650    1.4463</t>
+  </si>
+  <si>
+    <t>0.5084    0.5135    0.3889    0.5097</t>
+  </si>
+  <si>
+    <t>1.4316    1.4244    1.3039    1.3077</t>
+  </si>
+  <si>
+    <t>0.4302    0.4291    0.3462    0.4325</t>
+  </si>
+  <si>
+    <t>1.2871    1.2854    1.2377    1.1793</t>
+  </si>
+  <si>
+    <t>0.3487    0.3528    0.3023    0.3507</t>
+  </si>
+  <si>
+    <t>1.0206    1.0000    1.1820    1.1027</t>
+  </si>
+  <si>
+    <t>0.2696    0.2722    0.2561    0.2815</t>
+  </si>
+  <si>
+    <t>0.9303    0.9194    0.9643    0.8916</t>
+  </si>
+  <si>
+    <t>0.1879    0.1933    0.1887    0.1935</t>
   </si>
 </sst>
 </file>
@@ -653,89 +681,58 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -743,30 +740,22 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -774,15 +763,30 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -790,7 +794,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -798,14 +802,38 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -831,7 +859,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,13 +907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,85 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,37 +949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,6 +995,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1013,17 +1041,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,15 +1072,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,13 +1100,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,148 +1143,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,7 +1298,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="17" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="21" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
@@ -1279,63 +1307,63 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="19" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="33" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="19" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="33" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1607,12 +1635,12 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="9.14074074074074" style="1"/>
+    <col min="1" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2194,41 +2222,44 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.14074074074074" style="1"/>
-    <col min="2" max="2" width="22.2222222222222" style="1" customWidth="true"/>
-    <col min="3" max="3" width="21.6592592592593" style="1" customWidth="true"/>
-    <col min="4" max="4" width="27.1407407407407" style="1" customWidth="true"/>
-    <col min="5" max="5" width="9.14074074074074" style="1"/>
+    <col min="1" max="1" width="9.14" style="1"/>
+    <col min="2" max="2" width="29.0533333333333" style="1" customWidth="true"/>
+    <col min="3" max="3" width="29.4466666666667" style="1" customWidth="true"/>
+    <col min="4" max="4" width="29.8866666666667" style="1" customWidth="true"/>
+    <col min="5" max="5" width="9.14" style="1"/>
     <col min="6" max="6" width="14.2" style="1" customWidth="true"/>
-    <col min="7" max="16384" width="9.14074074074074" style="1"/>
+    <col min="7" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2236,13 +2267,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2250,13 +2281,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2264,13 +2295,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2278,13 +2309,13 @@
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2292,13 +2323,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2306,13 +2337,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2320,13 +2351,13 @@
         <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2334,32 +2365,32 @@
         <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2367,13 +2398,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2381,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2395,13 +2426,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2409,13 +2440,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2423,13 +2454,13 @@
         <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2437,13 +2468,13 @@
         <v>120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2451,13 +2482,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2465,16 +2496,19 @@
         <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2485,26 +2519,27 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9.14074074074074" style="1"/>
-    <col min="3" max="3" width="23.9703703703704" style="1" customWidth="true"/>
-    <col min="4" max="5" width="24.2740740740741" style="1" customWidth="true"/>
-    <col min="6" max="6" width="23.0592592592593" style="1" customWidth="true"/>
-    <col min="7" max="9" width="9.14074074074074" style="1"/>
+    <col min="1" max="2" width="9.14" style="1"/>
+    <col min="3" max="3" width="27.3333333333333" style="1" customWidth="true"/>
+    <col min="4" max="4" width="26.9333333333333" style="1" customWidth="true"/>
+    <col min="5" max="5" width="27.0666666666667" style="1" customWidth="true"/>
+    <col min="6" max="6" width="27.5333333333333" style="1" customWidth="true"/>
+    <col min="7" max="9" width="9.14" style="1"/>
     <col min="10" max="10" width="23.6666666666667" style="1" customWidth="true"/>
-    <col min="11" max="12" width="23.2592592592593" style="1" customWidth="true"/>
+    <col min="11" max="12" width="23.26" style="1" customWidth="true"/>
     <col min="13" max="13" width="23.6666666666667" style="1" customWidth="true"/>
-    <col min="14" max="16384" width="9.14074074074074" style="1"/>
+    <col min="14" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2554,7 +2589,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>76</v>
@@ -2639,7 +2674,7 @@
         <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>94</v>
@@ -2724,7 +2759,7 @@
         <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>110</v>
@@ -2750,11 +2785,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" ht="16" customHeight="true" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2809,7 +2844,7 @@
         <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>126</v>
@@ -2902,19 +2937,19 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.14074074074074" style="1"/>
-    <col min="4" max="4" width="26.9777777777778" style="1" customWidth="true"/>
-    <col min="5" max="5" width="30.2296296296296" style="1" customWidth="true"/>
-    <col min="6" max="6" width="13.4888888888889" style="1" customWidth="true"/>
-    <col min="7" max="7" width="11.4222222222222" style="1" customWidth="true"/>
-    <col min="8" max="8" width="10.5555555555556" style="1" customWidth="true"/>
-    <col min="9" max="16384" width="9.14074074074074" style="1"/>
+    <col min="1" max="3" width="9.14" style="1"/>
+    <col min="4" max="4" width="26.98" style="1" customWidth="true"/>
+    <col min="5" max="5" width="30.2266666666667" style="1" customWidth="true"/>
+    <col min="6" max="6" width="13.4866666666667" style="1" customWidth="true"/>
+    <col min="7" max="7" width="11.42" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5533333333333" style="1" customWidth="true"/>
+    <col min="9" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2948,15 +2983,15 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -2965,15 +3000,15 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -2982,18 +3017,18 @@
         <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="4:5">
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3004,10 +3039,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3018,10 +3053,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3032,18 +3067,18 @@
         <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3054,10 +3089,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3068,10 +3103,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3082,15 +3117,15 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>136</v>
@@ -3116,15 +3151,15 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
@@ -3133,15 +3168,15 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -3150,18 +3185,18 @@
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -3172,10 +3207,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -3186,10 +3221,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -3200,18 +3235,18 @@
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -3222,10 +3257,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -3236,10 +3271,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -3250,10 +3285,10 @@
         <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3267,16 +3302,16 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.24444444444444" style="1" customWidth="true"/>
-    <col min="2" max="2" width="24.437037037037" style="1" customWidth="true"/>
-    <col min="3" max="3" width="22.3703703703704" style="1" customWidth="true"/>
-    <col min="4" max="16384" width="9.14074074074074" style="1"/>
+    <col min="1" max="1" width="8.24666666666667" style="1" customWidth="true"/>
+    <col min="2" max="2" width="27.1133333333333" style="1" customWidth="true"/>
+    <col min="3" max="3" width="27.5533333333333" style="1" customWidth="true"/>
+    <col min="4" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3284,20 +3319,20 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3305,10 +3340,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3317,10 +3352,10 @@
         <v>0.9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3329,10 +3364,10 @@
         <v>0.8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -3341,10 +3376,10 @@
         <v>0.7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3353,10 +3388,10 @@
         <v>0.6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3365,10 +3400,10 @@
         <v>0.5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3377,10 +3412,10 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3389,10 +3424,10 @@
         <v>0.3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3401,10 +3436,10 @@
         <v>0.2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -3413,10 +3448,10 @@
         <v>0.1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -3425,27 +3460,27 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3453,10 +3488,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3464,10 +3499,10 @@
         <v>0.9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3475,10 +3510,10 @@
         <v>0.8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3486,10 +3521,10 @@
         <v>0.7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3497,10 +3532,10 @@
         <v>0.6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3508,10 +3543,10 @@
         <v>0.5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3519,10 +3554,10 @@
         <v>0.4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3530,10 +3565,10 @@
         <v>0.3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3541,10 +3576,10 @@
         <v>0.2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3552,10 +3587,10 @@
         <v>0.1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3563,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450" activeTab="4"/>
+    <workbookView windowWidth="27720" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SA Hyper Tuning" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>0.9705    0.9657    0.6649    0.9682</t>
   </si>
   <si>
-    <t>757.9589    0.3022    0.0086    0.0039</t>
+    <t>757.9589    0.3022    0.0026    0.0039</t>
   </si>
   <si>
     <t>(P2)</t>
@@ -182,22 +182,22 @@
     <t>31.7881    0.2209    0.0023    0.0047</t>
   </si>
   <si>
-    <t>6.5510    4.6880    1.5188    4.6631</t>
-  </si>
-  <si>
-    <t>0.9806    0.9174    0.4840    0.9624</t>
+    <t>6.5510    4.6880    1.6008    4.4724</t>
+  </si>
+  <si>
+    <t>0.9806    0.9174    0.5046    0.9600</t>
   </si>
   <si>
     <t>153.3777    0.2277    0.0029    0.0059</t>
   </si>
   <si>
-    <t>7.0654    4.5582    1.5133    4.4397</t>
-  </si>
-  <si>
-    <t>0.9801    0.9107    0.4720    0.9406</t>
-  </si>
-  <si>
-    <t>374.2171    0.3599    0.0086    0.0078</t>
+    <t>7.0654    4.5582    1.5114    4.2913</t>
+  </si>
+  <si>
+    <t>0.9801    0.9107    0.4594    0.9377</t>
+  </si>
+  <si>
+    <t>374.2171    0.3599    0.0086    0.0087</t>
   </si>
   <si>
     <t>6.9602    4.6854    1.4943    4.2896</t>
@@ -206,7 +206,7 @@
     <t>0.9604    0.8927    0.4583    0.9061</t>
   </si>
   <si>
-    <t>709.4593    0.3842    0.0095    0.0092</t>
+    <t>709.4593    0.3842    0.0095    0.0095</t>
   </si>
   <si>
     <t>100 Users</t>
@@ -239,7 +239,7 @@
     <t>4.4495    4.1445    2.6825    2.6060</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.7213    4.5881    3.6827    2.7222</t>
+    <t>4.7213    4.5881    3.6115    2.6855</t>
   </si>
   <si>
     <t>0.5GB</t>
@@ -251,7 +251,7 @@
     <t>4.6396    4.4532    2.8655    2.8760</t>
   </si>
   <si>
-    <t>4.7337    4.6157    3.8581    3.0928</t>
+    <t>4.7337    4.6157    3.6631    2.9180</t>
   </si>
   <si>
     <t>0.75GB</t>
@@ -266,7 +266,7 @@
     <t>4.6140    4.4198    2.8722    2.9662</t>
   </si>
   <si>
-    <t>4.7269    4.5977    3.4637    2.7796</t>
+    <t>4.7269    4.5977    3.6678    2.9588</t>
   </si>
   <si>
     <t>1GB</t>
@@ -281,7 +281,7 @@
     <t>4.6842    4.5402    3.0278    3.0740</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.7222    4.6207    3.2578    2.7004</t>
+    <t>4.7222    4.6207    3.6525    2.9961</t>
   </si>
   <si>
     <t>Cache-Hit Ratio (P1)</t>
@@ -305,7 +305,7 @@
     <t>1.0000    1.0000    0.8759    1.0000</t>
   </si>
   <si>
-    <t>1.0000    1.0000    0.9742    1.0000</t>
+    <t>1.0000    1.0000    0.9542    1.0000</t>
   </si>
   <si>
     <t>0.9957    0.9943    0.5337    0.9955</t>
@@ -317,7 +317,7 @@
     <t>1.0000    1.0000    0.8688    1.0000</t>
   </si>
   <si>
-    <t>1.0000    1.0000    0.9341    1.0000</t>
+    <t>1.0000    1.0000    0.9548    1.0000</t>
   </si>
   <si>
     <t>1.0000    1.0000    0.5154    1.0000</t>
@@ -329,7 +329,7 @@
     <t>1.0000    1.0000    0.8815    1.0000</t>
   </si>
   <si>
-    <t>1.0000    1.0000    0.9125    1.0000</t>
+    <t>1.0000    1.0000    0.9531    1.0000</t>
   </si>
   <si>
     <t>Energy Gain (P2)</t>
@@ -368,8 +368,7 @@
     <t>6.9549    6.6557    2.4896    5.1621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1004    5.4621    1.2844    5.2472
-</t>
+    <t>6.1004    5.4621    1.2844    5.2472</t>
   </si>
   <si>
     <t>6.6124    5.9671    1.7730    5.3193</t>
@@ -681,8 +680,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -715,21 +714,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -746,7 +738,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -754,14 +746,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -777,15 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,40 +822,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,7 +858,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,13 +918,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,19 +984,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,121 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,41 +1037,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1096,6 +1060,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,162 +1137,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2223,7 +2222,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2519,8 +2518,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2937,8 +2936,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3302,8 +3301,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15.75" outlineLevelCol="6"/>
